--- a/simulation_data/iterative_algorithm/i_error_level_5_percent_water_20.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_5_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.24933283782235</v>
+        <v>89.05474873293849</v>
       </c>
       <c r="D2" t="n">
-        <v>5.903850071160012</v>
+        <v>5.871494917573718</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.4959346005481</v>
+        <v>89.57276070754078</v>
       </c>
       <c r="D3" t="n">
-        <v>6.726107829913949</v>
+        <v>6.082780562240919</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.85853632806192</v>
+        <v>87.52254732338933</v>
       </c>
       <c r="D4" t="n">
-        <v>5.796898157923862</v>
+        <v>5.258629794426831</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.56252671387884</v>
+        <v>87.3189437529922</v>
       </c>
       <c r="D5" t="n">
-        <v>5.961305754628784</v>
+        <v>5.503586414020611</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.31483010248354</v>
+        <v>85.98532875734861</v>
       </c>
       <c r="D6" t="n">
-        <v>5.676249065563484</v>
+        <v>5.502775804615509</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.59519984745616</v>
+        <v>84.20363597486779</v>
       </c>
       <c r="D7" t="n">
-        <v>6.432409587676433</v>
+        <v>5.935610696679455</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.27405710153276</v>
+        <v>83.70501429659366</v>
       </c>
       <c r="D8" t="n">
-        <v>5.525698345880679</v>
+        <v>5.759874404822854</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.92210749376345</v>
+        <v>83.22580788159792</v>
       </c>
       <c r="D9" t="n">
-        <v>5.579433747131964</v>
+        <v>6.556136312400583</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.55091906095113</v>
+        <v>81.80321794695595</v>
       </c>
       <c r="D10" t="n">
-        <v>6.051211124405772</v>
+        <v>5.345199079415462</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.7022022656482</v>
+        <v>81.27471695061791</v>
       </c>
       <c r="D11" t="n">
-        <v>6.476738802335008</v>
+        <v>5.373165094591455</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.56811394690173</v>
+        <v>80.31953437466649</v>
       </c>
       <c r="D12" t="n">
-        <v>5.691252512231725</v>
+        <v>6.024400831758455</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.21079737819305</v>
+        <v>78.75567279209902</v>
       </c>
       <c r="D13" t="n">
-        <v>6.438145177736183</v>
+        <v>5.021962503619135</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.8084099572052</v>
+        <v>77.8383423683708</v>
       </c>
       <c r="D14" t="n">
-        <v>5.497149358598395</v>
+        <v>5.824174156991327</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.15375551658087</v>
+        <v>77.16313408363328</v>
       </c>
       <c r="D15" t="n">
-        <v>5.918733063952095</v>
+        <v>5.366738783726047</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.59147031018286</v>
+        <v>75.40566089758822</v>
       </c>
       <c r="D16" t="n">
-        <v>6.182048304011723</v>
+        <v>4.961715851527905</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.86732456805184</v>
+        <v>74.74992105524623</v>
       </c>
       <c r="D17" t="n">
-        <v>5.647510289717398</v>
+        <v>5.012440131666376</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.10884728849241</v>
+        <v>74.00317547205657</v>
       </c>
       <c r="D18" t="n">
-        <v>5.693828165603933</v>
+        <v>5.401808777324345</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.05981544918974</v>
+        <v>73.51802825573054</v>
       </c>
       <c r="D19" t="n">
-        <v>6.360052113635363</v>
+        <v>5.586327412471532</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.18283605910118</v>
+        <v>71.73994526632706</v>
       </c>
       <c r="D20" t="n">
-        <v>6.459229226219743</v>
+        <v>5.470035206581462</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.65109558410188</v>
+        <v>71.12190926237146</v>
       </c>
       <c r="D21" t="n">
-        <v>5.593275315887688</v>
+        <v>5.345122851955956</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.50026068932245</v>
+        <v>70.32361054846879</v>
       </c>
       <c r="D22" t="n">
-        <v>5.572595328696105</v>
+        <v>5.863695272156237</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.75036125507484</v>
+        <v>69.1004465315809</v>
       </c>
       <c r="D23" t="n">
-        <v>6.224407890726095</v>
+        <v>5.482824935979465</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.61347053350342</v>
+        <v>68.51811462244166</v>
       </c>
       <c r="D24" t="n">
-        <v>6.019404539402502</v>
+        <v>5.95598662135055</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.80351251789071</v>
+        <v>66.88031725920649</v>
       </c>
       <c r="D25" t="n">
-        <v>6.846481979814397</v>
+        <v>5.184823311032449</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.01801345584794</v>
+        <v>65.76995973322524</v>
       </c>
       <c r="D26" t="n">
-        <v>6.029935844084517</v>
+        <v>5.606464435068016</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.91628592285286</v>
+        <v>65.01482274960195</v>
       </c>
       <c r="D27" t="n">
-        <v>6.089271488618459</v>
+        <v>4.976311317069467</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.34445888267604</v>
+        <v>63.80074511474632</v>
       </c>
       <c r="D28" t="n">
-        <v>5.723179701506612</v>
+        <v>5.751987819658493</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.76545003140511</v>
+        <v>63.61255734383317</v>
       </c>
       <c r="D29" t="n">
-        <v>6.355030193666287</v>
+        <v>5.492679368883072</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>60.84963225077829</v>
+        <v>62.38208852154447</v>
       </c>
       <c r="D30" t="n">
-        <v>7.455002652357728</v>
+        <v>5.120007290111341</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.49317779853802</v>
+        <v>60.25478156731608</v>
       </c>
       <c r="D31" t="n">
-        <v>6.028812719777638</v>
+        <v>5.47646616159291</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.66488540184698</v>
+        <v>59.77302595496612</v>
       </c>
       <c r="D32" t="n">
-        <v>6.023383404156054</v>
+        <v>6.002006552585657</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.31386782462848</v>
+        <v>58.38679570311078</v>
       </c>
       <c r="D33" t="n">
-        <v>5.782847868791313</v>
+        <v>5.072460824956833</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.47666396009267</v>
+        <v>58.32846689264895</v>
       </c>
       <c r="D34" t="n">
-        <v>5.705347436002772</v>
+        <v>6.12842710563991</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.23116186224186</v>
+        <v>57.63099362633177</v>
       </c>
       <c r="D35" t="n">
-        <v>5.395791912485662</v>
+        <v>4.602578181146063</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.15773571320266</v>
+        <v>56.84688130655053</v>
       </c>
       <c r="D36" t="n">
-        <v>5.190174730735772</v>
+        <v>4.869301407304316</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.61532057612553</v>
+        <v>55.36143384371943</v>
       </c>
       <c r="D37" t="n">
-        <v>5.54302181964669</v>
+        <v>5.469539403545575</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.44271662681169</v>
+        <v>53.90920108204907</v>
       </c>
       <c r="D38" t="n">
-        <v>6.187354150744336</v>
+        <v>5.593411319482546</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.44708129306131</v>
+        <v>53.49386478309557</v>
       </c>
       <c r="D39" t="n">
-        <v>5.92404181255051</v>
+        <v>5.946770572740051</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.57424072650949</v>
+        <v>52.83278944377414</v>
       </c>
       <c r="D40" t="n">
-        <v>6.158928777398571</v>
+        <v>5.60543193490266</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.91943859234824</v>
+        <v>51.1468235454564</v>
       </c>
       <c r="D41" t="n">
-        <v>6.170190106430315</v>
+        <v>5.775143555951858</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.54114689813547</v>
+        <v>50.92246076542551</v>
       </c>
       <c r="D42" t="n">
-        <v>6.274989399958277</v>
+        <v>5.63064097439611</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.03281760127754</v>
+        <v>49.33788281914106</v>
       </c>
       <c r="D43" t="n">
-        <v>6.062518863590578</v>
+        <v>5.809645124388597</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.36244315511527</v>
+        <v>48.14145905291794</v>
       </c>
       <c r="D44" t="n">
-        <v>5.906625817864976</v>
+        <v>5.03170848018864</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.77853594522332</v>
+        <v>47.28730184059732</v>
       </c>
       <c r="D45" t="n">
-        <v>6.154851399618424</v>
+        <v>5.599583424981164</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.27501658148874</v>
+        <v>46.1803388970392</v>
       </c>
       <c r="D46" t="n">
-        <v>5.291926575935045</v>
+        <v>5.596249278701414</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.97753633355862</v>
+        <v>44.79186907499697</v>
       </c>
       <c r="D47" t="n">
-        <v>6.933202187294634</v>
+        <v>5.663527409919957</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.61719801417067</v>
+        <v>42.98633188632886</v>
       </c>
       <c r="D48" t="n">
-        <v>6.016042243207667</v>
+        <v>6.036025213656654</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.81596446823358</v>
+        <v>44.08228282717507</v>
       </c>
       <c r="D49" t="n">
-        <v>5.579950256051725</v>
+        <v>5.598677596701011</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.57608927035803</v>
+        <v>43.89686651884362</v>
       </c>
       <c r="D50" t="n">
-        <v>6.350460062779774</v>
+        <v>5.649223458036598</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.01295738091777</v>
+        <v>40.1440262682754</v>
       </c>
       <c r="D51" t="n">
-        <v>6.240914453951499</v>
+        <v>5.958946443597659</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.13216797379835</v>
+        <v>39.25542012562348</v>
       </c>
       <c r="D52" t="n">
-        <v>6.216855271124683</v>
+        <v>6.078990579181336</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.21761789428907</v>
+        <v>39.65654101683371</v>
       </c>
       <c r="D53" t="n">
-        <v>5.904070301400148</v>
+        <v>6.273493990067863</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.60935803951505</v>
+        <v>37.42901100687418</v>
       </c>
       <c r="D54" t="n">
-        <v>5.847362655729051</v>
+        <v>5.868465978965319</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.16329347589657</v>
+        <v>36.5047255753603</v>
       </c>
       <c r="D55" t="n">
-        <v>5.7769267602698</v>
+        <v>6.072761525725303</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.46926556339915</v>
+        <v>35.90044486934366</v>
       </c>
       <c r="D56" t="n">
-        <v>5.443196195339015</v>
+        <v>5.910876961250062</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.02193547527801</v>
+        <v>35.45390552290522</v>
       </c>
       <c r="D57" t="n">
-        <v>5.682111547884156</v>
+        <v>5.392667053735988</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.84975138540193</v>
+        <v>33.56085638716322</v>
       </c>
       <c r="D58" t="n">
-        <v>5.596945545374217</v>
+        <v>6.606926359831876</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.30140425733304</v>
+        <v>32.81872707781378</v>
       </c>
       <c r="D59" t="n">
-        <v>6.198195136301317</v>
+        <v>5.867907467099395</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.44275726992169</v>
+        <v>31.15840664602005</v>
       </c>
       <c r="D60" t="n">
-        <v>5.219161052422887</v>
+        <v>5.823861028816441</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.82324679327785</v>
+        <v>31.87935441165723</v>
       </c>
       <c r="D61" t="n">
-        <v>6.153233987358894</v>
+        <v>5.476016504276797</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.1239370100094</v>
+        <v>28.89010357515547</v>
       </c>
       <c r="D62" t="n">
-        <v>6.14394573916651</v>
+        <v>5.218490689614431</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.41044824862034</v>
+        <v>29.0253496397768</v>
       </c>
       <c r="D63" t="n">
-        <v>6.081827728552788</v>
+        <v>6.444409685396232</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.70679504863068</v>
+        <v>28.57807753929652</v>
       </c>
       <c r="D64" t="n">
-        <v>5.815244117380245</v>
+        <v>5.546557024797178</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.01326960689682</v>
+        <v>26.58409321540287</v>
       </c>
       <c r="D65" t="n">
-        <v>5.934663168390287</v>
+        <v>7.353823981054207</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.28246552913851</v>
+        <v>25.6334534758557</v>
       </c>
       <c r="D66" t="n">
-        <v>5.627574652187418</v>
+        <v>5.87517122619056</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.43123910055117</v>
+        <v>25.50372682020329</v>
       </c>
       <c r="D67" t="n">
-        <v>6.350443373828947</v>
+        <v>6.449264447161284</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.05745762853956</v>
+        <v>23.7232218447942</v>
       </c>
       <c r="D68" t="n">
-        <v>5.880779932411619</v>
+        <v>5.987932602288836</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.91203183721479</v>
+        <v>22.52686330560513</v>
       </c>
       <c r="D69" t="n">
-        <v>6.410632717597362</v>
+        <v>6.383501461812241</v>
       </c>
     </row>
   </sheetData>
